--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2547312.748555187</v>
+        <v>2651492.383006258</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038580.508304417</v>
+        <v>9038580.508304415</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.2530347261458</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>29.73768044679854</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.98140443379526</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>164.9654595031138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.90969376287511</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>269.7104774866285</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>137.9761097469134</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>44.00673497013315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>42.76773080618834</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>70.01505925776905</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>140.7216482930483</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>140.8159115981095</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>138.7199604467</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,16 +1581,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>177.1006680594869</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>96.02642072444083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>113.4862783316165</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>46.29306638367343</v>
+        <v>31.83025205763987</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>79.7011924439779</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.71156409265926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6594061764987</v>
       </c>
       <c r="D25" t="n">
-        <v>117.6579322793575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>166.8892976061572</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.77337404802793</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>113.0992099793451</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>166.3208822291524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>126.9927435506645</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>77.3950726440262</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.2091541404073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.2977868514359</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.444394634328834</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.0719539884621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.36653093099</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1935.36653093099</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>553.6195264050905</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.36653093099</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
         <v>478.4305777370295</v>
@@ -4477,25 +4479,25 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1575.089919365983</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1575.089919365983</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1320.405431160096</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.044958489905</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>810.195681979605</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>498.9890585374011</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>498.9890585374011</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>498.9890585374011</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>498.9890585374011</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>352.0991110394907</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.539604148025</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X7" t="n">
-        <v>829.5500532500074</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y7" t="n">
-        <v>608.7574741064773</v>
+        <v>680.6375233676408</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.0217593722</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.556001111121</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.416669135309</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>917.9306290998774</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036487</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036487</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.088808492942</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y10" t="n">
-        <v>806.2962293494114</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>781.250370848291</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.1337314359553</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>483.2206378535622</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2265.284775457293</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2045.683310480234</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1756.608083824432</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1501.923595618545</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>449.4852666057155</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,16 +5831,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>3275.130390493382</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>3106.194207565476</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>2956.07756815314</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>3456.778855323622</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,19 +6308,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>1098.306025422647</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2430.020281511546</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2247.16544716645</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2247.16544716645</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.090220510648</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1703.405732304761</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.9885622678</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.999011369783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.2064322262529</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.9279362553159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6613,58 +6615,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.358531127103</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855556</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517213</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F34" t="n">
-        <v>265.073174061852</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>97.87707477673194</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6916,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>2878.328163333973</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>2878.328163333973</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>3505.92612688858</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>4057.835857127867</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4481.459006622935</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>2877.8627132863</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>2546.907945506609</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>3042.233551722368</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.61203934892</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903526</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903526</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398594</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>494.4787006925118</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>347.5887531946014</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>180.3926539094813</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511905</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232836</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1941.434309135586</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.749820929699</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.332650892738</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.343099994721</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>948.5505208511905</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.701087576231231</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.03697526434109</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>71.22040037418701</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>67.5400076700281</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>99.12798163925781</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>66.73277020259127</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5874149221291418</v>
       </c>
       <c r="D25" t="n">
-        <v>30.9575407388549</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.357523492470591</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.60187266209373</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>119.8635921600917</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.83923663127278</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.2749052347514</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>71.22040037418616</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.37549921168744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.28686650065887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>135.8503182118951</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.11252040078202</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316948</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316939</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507286</v>
+        <v>-871419.2253507283</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768641</v>
+        <v>457325.5203768639</v>
       </c>
       <c r="D6" t="n">
-        <v>457325.5203768641</v>
+        <v>457325.5203768638</v>
       </c>
       <c r="E6" t="n">
-        <v>206795.367938925</v>
+        <v>206795.3679389246</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.82974628</v>
+        <v>532207.8297462795</v>
       </c>
       <c r="G6" t="n">
         <v>532207.8297462797</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462799</v>
+        <v>532207.8297462801</v>
       </c>
       <c r="I6" t="n">
         <v>532207.82974628</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490026</v>
+        <v>314676.6273490023</v>
       </c>
       <c r="K6" t="n">
-        <v>532207.8297462799</v>
+        <v>532207.8297462797</v>
       </c>
       <c r="L6" t="n">
-        <v>532207.82974628</v>
+        <v>532207.8297462801</v>
       </c>
       <c r="M6" t="n">
-        <v>447152.8018107683</v>
+        <v>447152.801810768</v>
       </c>
       <c r="N6" t="n">
         <v>532207.8297462799</v>
       </c>
       <c r="O6" t="n">
+        <v>532207.8297462796</v>
+      </c>
+      <c r="P6" t="n">
         <v>532207.8297462799</v>
-      </c>
-      <c r="P6" t="n">
-        <v>532207.8297462801</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.4300068945372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>377.1383652949129</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>149.5675448423739</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>121.5575388334772</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.8241479006055</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.56241428437903</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>28.04969851211479</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>242.5162633664578</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>339.9661108572922</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>279.225909459644</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>26.52517280557953</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>84.89374379092766</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>730.4561889249558</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447131</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>303.4297552732306</v>
+        <v>225.4828684302372</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>314.4610577451597</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>459.1396705889915</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>456.3459017226589</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>599.1144768416225</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>160.8335108287862</v>
+        <v>82.88662398579278</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>174.4792836591382</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>320.5852908091173</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>318.5044627482999</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2651492.383006258</v>
+        <v>2647479.772992265</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038580.508304415</v>
+        <v>9038580.508304417</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>52.83391759428314</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>29.73768044679854</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734125409</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>27.00971856836681</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>69.98140443379526</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.0524966157174</v>
       </c>
       <c r="C5" t="n">
-        <v>269.7104774866285</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247734</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>137.9761097469134</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.76773080618834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>140.7216482930483</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.7199604467</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4862783316165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>31.83025205763987</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>79.7011924439779</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>166.6594061764987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>166.8892976061572</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0992099793451</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.9927435506645</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>77.3950726440262</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>4.444394634328834</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>54.32649042089665</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="C2" t="n">
-        <v>939.4077790033348</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4077790033348</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>553.6195264050905</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524212</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2029.572515263132</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.5472171493652</v>
+        <v>1021.570547268604</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>852.6343643406973</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>702.5177249283615</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>554.6046313459684</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>407.714683848058</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>240.011847222777</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>93.79466044063477</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846022</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1575.089919365983</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.089919365983</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="V4" t="n">
-        <v>1320.405431160096</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="W4" t="n">
-        <v>1030.988261123135</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.988261123135</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.195681979605</v>
+        <v>1203.219012098844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838974</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878908</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.9890585374011</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>498.9890585374011</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>498.9890585374011</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>498.9890585374011</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>352.0991110394907</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676408</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676408</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.6375233676408</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.9306290998774</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.361223971664</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.371673073647</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.579093930117</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>781.250370848291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>631.1337314359553</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>483.2206378535622</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2265.284775457293</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2045.683310480234</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1756.608083824432</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.923595618545</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1212.506425581584</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609656</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3275.130390493382</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3106.194207565476</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2956.07756815314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3677.571434467152</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3456.778855323622</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>2715.159942084666</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3312.538429711218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3905.661761784424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.306025422647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3031.88921499615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2877.8627132863</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649335</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>961.4446166151475</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>792.5084336872407</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>642.3917942749049</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>494.4787006925118</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>347.5887531946014</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>180.3926539094813</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.885660588917</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1143.093081445387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776659</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>148.6919058973624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.124925829702267e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>6.701087576231231</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>67.5400076700281</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.5907959652914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>66.73277020259127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5874149221291418</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.357523492470591</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.73277020259215</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.83923663127278</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>71.22040037418616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>85.96822242532724</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316926</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
@@ -26432,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507283</v>
+        <v>-871419.2253507294</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768639</v>
+        <v>457325.5203768645</v>
       </c>
       <c r="D6" t="n">
-        <v>457325.5203768638</v>
+        <v>457325.5203768642</v>
       </c>
       <c r="E6" t="n">
-        <v>206795.3679389246</v>
+        <v>206447.9886845675</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462795</v>
+        <v>531860.450491923</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462797</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462801</v>
+        <v>531860.4504919231</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.82974628</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="J6" t="n">
-        <v>314676.6273490023</v>
+        <v>314329.2480946455</v>
       </c>
       <c r="K6" t="n">
-        <v>532207.8297462797</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="L6" t="n">
-        <v>532207.8297462801</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="M6" t="n">
-        <v>447152.801810768</v>
+        <v>446805.422556411</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462799</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919228</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462799</v>
+        <v>531860.4504919229</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>312.4389741767244</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>377.1383652949129</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69.34270184147125</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>149.5675448423739</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.6813450477632</v>
       </c>
       <c r="C5" t="n">
-        <v>95.56241428437903</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>28.04969851211479</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.9661108572922</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.52517280557953</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.036702779561451e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,28 +32077,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>730.4561889249558</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>297.1808238847177</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>225.4828684302372</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>677.7372574190229</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q42" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>309.9424824173362</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>599.1144768416225</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>159.3393849103587</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88662398579278</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>535.1410129745784</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>320.5852908091173</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2647479.772992265</v>
+        <v>2649240.303295049</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038580.508304417</v>
+        <v>9038580.508304415</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6667577510682849</v>
       </c>
       <c r="C2" t="n">
-        <v>52.83391759428314</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.00971856836681</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>217.091419992848</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.0524966157174</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>42.78734947750964</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17.35112070699488</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.14989839348875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.05856366754516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>170.4986271327075</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2029.572515263132</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4321,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839473</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524212</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263132</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263132</v>
+        <v>2345.840931351812</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1021.570547268604</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>852.6343643406973</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>702.5177249283615</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>554.6046313459684</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>407.714683848058</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>240.011847222777</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>93.79466044063477</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242374</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242374</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242374</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>1424.011591242374</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.219012098844</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535339</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559527</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1675.730933054506</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1306.768416114094</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>948.502717507344</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>562.7144649090997</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>151.7285601194921</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3197.788768583745</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3197.788768583745</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3197.788768583745</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2062.330773118628</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.124925829702267e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>55.21102825632963</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7734165143921</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.21102825632963</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659051</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316926</v>
+        <v>91573.95495316949</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
@@ -26432,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871419.2253507294</v>
+        <v>-871419.2253507284</v>
       </c>
       <c r="C6" t="n">
-        <v>457325.5203768645</v>
+        <v>457325.5203768638</v>
       </c>
       <c r="D6" t="n">
-        <v>457325.5203768642</v>
+        <v>457325.5203768637</v>
       </c>
       <c r="E6" t="n">
-        <v>206447.9886845675</v>
+        <v>206760.6300134888</v>
       </c>
       <c r="F6" t="n">
-        <v>531860.450491923</v>
+        <v>532173.091820844</v>
       </c>
       <c r="G6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.091820844</v>
       </c>
       <c r="H6" t="n">
-        <v>531860.4504919231</v>
+        <v>532173.091820844</v>
       </c>
       <c r="I6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="J6" t="n">
-        <v>314329.2480946455</v>
+        <v>314641.8894235665</v>
       </c>
       <c r="K6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208439</v>
       </c>
       <c r="L6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.091820844</v>
       </c>
       <c r="M6" t="n">
-        <v>446805.422556411</v>
+        <v>447118.0638853321</v>
       </c>
       <c r="N6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="O6" t="n">
-        <v>531860.4504919228</v>
+        <v>532173.091820844</v>
       </c>
       <c r="P6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.091820844</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>382.0670839124123</v>
       </c>
       <c r="C2" t="n">
-        <v>312.4389741767244</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>69.34270184147125</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.457529283321207</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.6813450477632</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062524</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>368.1343761759438</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>186.5668494326252</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.036702779561451e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
